--- a/excel_with_subclasses/without_zeros/plain_with_count_without_zeros.xlsx
+++ b/excel_with_subclasses/without_zeros/plain_with_count_without_zeros.xlsx
@@ -410,7 +410,7 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>count_P31</t>
+          <t>signifance</t>
         </is>
       </c>
     </row>
@@ -430,9 +430,6 @@
           <t>Q160091_равнина</t>
         </is>
       </c>
-      <c r="D2" t="n">
-        <v>86</v>
-      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -450,9 +447,6 @@
           <t>Q160091_равнина</t>
         </is>
       </c>
-      <c r="D3" t="n">
-        <v>73</v>
-      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -470,9 +464,6 @@
           <t>Q160091_равнина</t>
         </is>
       </c>
-      <c r="D4" t="n">
-        <v>26</v>
-      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -490,9 +481,6 @@
           <t>Q3290341_море</t>
         </is>
       </c>
-      <c r="D5" t="n">
-        <v>25</v>
-      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -510,9 +498,6 @@
           <t>Q160091_равнина</t>
         </is>
       </c>
-      <c r="D6" t="n">
-        <v>11</v>
-      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -530,9 +515,6 @@
           <t>Q160091_равнина</t>
         </is>
       </c>
-      <c r="D7" t="n">
-        <v>9</v>
-      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -550,9 +532,6 @@
           <t>Q160091_равнина</t>
         </is>
       </c>
-      <c r="D8" t="n">
-        <v>8</v>
-      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -570,9 +549,6 @@
           <t>Q160091_равнина</t>
         </is>
       </c>
-      <c r="D9" t="n">
-        <v>7</v>
-      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -590,9 +566,6 @@
           <t>Q160091_равнина</t>
         </is>
       </c>
-      <c r="D10" t="n">
-        <v>5</v>
-      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -610,9 +583,6 @@
           <t>Q160091_равнина</t>
         </is>
       </c>
-      <c r="D11" t="n">
-        <v>3</v>
-      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -630,9 +600,6 @@
           <t>Q160091_равнина</t>
         </is>
       </c>
-      <c r="D12" t="n">
-        <v>2</v>
-      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -650,9 +617,6 @@
           <t>Q160091_равнина</t>
         </is>
       </c>
-      <c r="D13" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -670,9 +634,6 @@
           <t>Q160091_равнина</t>
         </is>
       </c>
-      <c r="D14" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -689,9 +650,6 @@
         <is>
           <t>Q160091_равнина</t>
         </is>
-      </c>
-      <c r="D15" t="n">
-        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -731,7 +689,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>count_P31</t>
+          <t>signifance</t>
         </is>
       </c>
     </row>
@@ -751,9 +709,7 @@
           <t>Q75520_плато</t>
         </is>
       </c>
-      <c r="D2" t="n">
-        <v>22</v>
-      </c>
+      <c r="D2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -771,9 +727,7 @@
           <t>Q75520_плато</t>
         </is>
       </c>
-      <c r="D3" t="n">
-        <v>16</v>
-      </c>
+      <c r="D3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -791,9 +745,7 @@
           <t>Q75520_плато</t>
         </is>
       </c>
-      <c r="D4" t="n">
-        <v>11</v>
-      </c>
+      <c r="D4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -811,9 +763,7 @@
           <t>Q75520_плато</t>
         </is>
       </c>
-      <c r="D5" t="n">
-        <v>8</v>
-      </c>
+      <c r="D5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -831,9 +781,7 @@
           <t>Q75520_плато</t>
         </is>
       </c>
-      <c r="D6" t="n">
-        <v>7</v>
-      </c>
+      <c r="D6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -851,9 +799,7 @@
           <t>Q75520_плато</t>
         </is>
       </c>
-      <c r="D7" t="n">
-        <v>5</v>
-      </c>
+      <c r="D7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -871,9 +817,7 @@
           <t>Q75520_плато</t>
         </is>
       </c>
-      <c r="D8" t="n">
-        <v>4</v>
-      </c>
+      <c r="D8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -891,9 +835,7 @@
           <t>Q75520_плато</t>
         </is>
       </c>
-      <c r="D9" t="n">
-        <v>2</v>
-      </c>
+      <c r="D9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -911,9 +853,7 @@
           <t>Q75520_плато</t>
         </is>
       </c>
-      <c r="D10" t="n">
-        <v>1</v>
-      </c>
+      <c r="D10" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
